--- a/database/lattice/1005.xlsx
+++ b/database/lattice/1005.xlsx
@@ -394,7 +394,7 @@
   <dimension ref="A1:AMK2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="180" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -436,7 +436,7 @@
         <v>5</v>
       </c>
       <c r="B2" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>6</v>
